--- a/Question_Set2/Role-specific skills/Microsoft Intune Administration.xlsx
+++ b/Question_Set2/Role-specific skills/Microsoft Intune Administration.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You lead an IT team for a company that manages corporate devices using Microsoft Intune. You need to assign an administrative role to an engineer who will need to assign policies to devices, following the principle of least privilege. Which role should you assign them?', 'ques_type': 2, 'options': ['Help Desk Operator', 'Global Administrator', 'Intune Service Administrator', 'Policy and Profile Manager'], 'score': 'Help Desk Operator'}, {'title': 'Your organization uses mailboxes hosted in many different locations but is looking to reduce the number. You need to create a device configuration profile that adds email settings and assign this profile to user devices using Microsoft Intune.  Which mailbox locations should allow you to do this?', 'ques_type': 15, 'options': ['Outlook.com', 'Google Workspace', 'Exchange Online', 'Exchange Server', 'Gmail.com'], 'score': ['Exchange Online', 'Exchange Server']}, {'title': 'Your company’s security policy requires users to encrypt any email messages that contain sensitive information. Therefore, you need to enable Secure/Multipurpose Internet Mail Extensions (S/MIME) on corporate devices using Intune and create an app configuration policy. The following devices are in use:Device GroupDevice TypeOperating SystemEmail ClientAComputerWindows 10Microsoft OutlookBComputerWindows 11Built-in clientCTabletAndroidMicrosoft OutlookDTabletiPadOSBuilt-in clientWhich device group can you assign the app configuration policy to?', 'ques_type': 2, 'options': ['A', 'B', ' C', 'D'], 'score': 'C'}, {'title': 'A new security requirement at your company restricts access to corporate data from mobile devices that are not PIN-protected. You are now creating a compliance policy that will remove all corporate data from noncompliant devices.  Which of the following actions should you include in the policy?', 'ques_type': 2, 'options': ['The retirement of noncompliant devices.', 'The remote locking of noncompliant devices.', 'The marking of noncompliant devices.', 'The removal of noncompliant devices from Intune management.'], 'score': 'The retirement of noncompliant devices.'}]</t>
+    <t>questions = [
+    {
+        "title": "You lead an IT team for a company that manages corporate devices using Microsoft Intune. You need to assign an administrative role to an engineer who will need to assign policies to devices, following the principle of least privilege. Which role should you assign them?",
+        "ques_type": 2,
+        "options": [
+            "Help Desk Operator",
+            "Global Administrator",
+            "Intune Service Administrator",
+            "Policy and Profile Manager"
+        ],
+        "score": "Help Desk Operator"
+    },
+    {
+        "title": "Your organization uses mailboxes hosted in many different locations but is looking to reduce the number. You need to create a device configuration profile that adds email settings and assign this profile to user devices using Microsoft Intune.  Which mailbox locations should allow you to do this?",
+        "ques_type": 15,
+        "options": [
+            "Outlook.com",
+            "Google Workspace",
+            "Exchange Online",
+            "Exchange Server",
+            "Gmail.com"
+        ],
+        "score": [
+            "Exchange Online",
+            "Exchange Server"
+        ]
+    },
+    {
+        "title": "Your company\u2019s security policy requires users to encrypt any email messages that contain sensitive information. Therefore, you need to enable Secure/Multipurpose Internet Mail Extensions (S/MIME) on corporate devices using Intune and create an app configuration policy. The following devices are in use:Device GroupDevice TypeOperating SystemEmail ClientAComputerWindows 10Microsoft OutlookBComputerWindows 11Built-in clientCTabletAndroidMicrosoft OutlookDTabletiPadOSBuilt-in clientWhich device group can you assign the app configuration policy to?",
+        "ques_type": 2,
+        "options": [
+            "A",
+            "B",
+            " C",
+            "D"
+        ],
+        "score": "C"
+    },
+    {
+        "title": "A new security requirement at your company restricts access to corporate data from mobile devices that are not PIN-protected. You are now creating a compliance policy that will remove all corporate data from noncompliant devices.  Which of the following actions should you include in the policy?",
+        "ques_type": 2,
+        "options": [
+            "The retirement of noncompliant devices.",
+            "The remote locking of noncompliant devices.",
+            "The marking of noncompliant devices.",
+            "The removal of noncompliant devices from Intune management."
+        ],
+        "score": "The retirement of noncompliant devices."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
